--- a/excel/booklist2023.xlsx
+++ b/excel/booklist2023.xlsx
@@ -2340,36 +2340,166 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>עדה גרניט / ביטי אנדריאה</t>
+          <t>עדה גרניט מדענית / אנדריאה ביטי ; איורים: דיויד רוברטס ; נסח עברי: נעמי בן-גור ; עריכה: נרי אלומה.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>רוברטס, דוד, 1970-  (מאייר)  $$Qרוברטס, דוד, 1970-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21439747520005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21439747520005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ביטי, אנדריאה מחבר$$Qביטי, אנדריאה</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Curiosity -- Juvenile fiction; Scientists -- Juvenile fiction; Science -- Experiments -- Juvenile fiction; Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12443965690005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>31 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 29 ס"מ</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>תשפ"ב 2021</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>בני ברק : הקבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>997010470769005171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21439747520005171</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>האריה שלא ידע לכתוב / בלטשיט מרטין</t>
+          <t>האריה שלא ידע לכתב / מרטין בלטשיט ; איורים - מרק בוטון ; תרגמה אילנה גילאון ; ערכה ועבדה שרה זלוף.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>זלוף, שרה  $$Qזלוף, שרה</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21185424570005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185424570005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>בלטשיט, מרטין, 1965-$$Qבלטשיט, מרטין, 1965-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- 21st century; Children's stories -- Translations into Hebrew; Lion -- Juvenile fiction; Reading -- Juvenile fiction; Animals -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[36] עמודים : איורים צבעוניים ; 29X23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20120101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tel Aviv : ספר לכל</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990034515940205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>איימי ותעלומת הגור הנעלם / קאלי ברקלי ; איורים: מרשה ריטי ; מאנגלית: רוני בק ; עורכת ראשית: עינת ניב ; ניקוד ועריכת לשון: שמאי ברקו.</t>
+          <t>אלי וההצגה הגדולה / קאלי ברקלי ; איורים: מרשה ריטי ; מאנגלית: רוני בק ; ניקוד ועריכת לשון: שמאי ברקו.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>בק, רוני  (מתרגם)  $$Qבק, רוני</t>
+          <t>ריטי, מרשה  (מאייר)  $$Qריטי, מרשה</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21444320540005171</t>
+          <t>NNL_ALEPH21474951520005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21444320540005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21474951520005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2379,17 +2509,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Detective and mystery stories; Lost and found possessions -- Juvenile fiction; Puppies -- Juvenile fiction; Children's stories, English -- Translations into Hebrew</t>
+          <t>Friendship -- Juvenile fiction; Clubs -- Juvenile fiction; Animal shelters -- Juvenile fiction; Theater -- Juvenile fiction; Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12453792260005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12476505100005171</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>117 עמודים : איורים ; 20 ס"מ.</t>
+          <t>עמודים ; ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2399,7 +2529,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[פתח תקווה] : תכלת הוצאה לאור</t>
+          <t>[פתח תקווה] : תכלת</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2409,7 +2539,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>997010693077405171</t>
+          <t>997011294916105171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2419,7 +2549,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21444320540005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21474951520005171</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2916,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>גליליאה / להב  נעמה</t>
+          <t>גלילאה מגלה את המקומות הכי בעולם / נעמה להב ; עריכה: תמר הוכשטטר.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>הוכשטטר, תמר  (עורך)  $$Qהוכשטטר, תמר</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21419853510005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21419853510005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>להב, נעמה, 1987- מחבר מאייר$$Qלהב, נעמה, 1987-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Voyages and travels -- Juvenile fiction; Voyages, Imaginary -- Juvenile fiction; Siblings -- Juvenile fiction; Stories in rhyme; Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12423727110005171</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32 עמודים לא ממוספרים : איורים צבעוניים ; 25X23 ס"מ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2021]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>997010089854205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21419853510005171</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3799,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>הנסיך דרקון: ירח / ארון איהז</t>
+          <t>ירח / ארון איהז ומלני מקגני איהז ; מאנגלית: יעל אכמון ; עורכת אחראית: מיכל פז-קלפ ; עורכת התרגום: יעל ינאי.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>איהז, מלני מקנגי  (מחבר)  $$Qאיהז, מלני מקנגי</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21443768290005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21443768290005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>איהז, ארון מחבר$$Qאיהז, ארון</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>American fiction -- Translations into Hebrew; Dragons -- Juvenile fiction; Elves -- Juvenile fiction; Princes -- Juvenile fiction; Magic -- Juvenile fiction; Good and evil -- Juvenile fiction; Quests (Expeditions) -- Juvenile fiction; Fantasy fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12453369880005171</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>239 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[2022]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[מושב בן-שמן] : כתר</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>997010678887105171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21443768290005171</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4303,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>איזו מין חתולה את / זיו-לי רקפת</t>
+          <t>איזו מין חתולה את, יוסף? / רקפת זיו-לי ; אייר: אמיר פרסיה ; עריכה: דלית לב.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>פרסיה, אמיר  (מאייר)  $$Qפרסיה, אמיר</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21404051800005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21404051800005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>זיו-לי, רקפת, 1968- מחבר$$Qזיו-לי, רקפת, 1968-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cats -- Juvenile fiction; Boys -- Israel -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12423727450005171</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>154 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>תשפ"א [2021]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>997009846087605171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21404051800005171</t>
         </is>
       </c>
     </row>
@@ -4842,7 +5167,72 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>פצפונת ואנטון קומיקס / קסטנר אריך</t>
+          <t>פצפנת ואנטון / אריך קסטנר ; בגרסת קומיקס מאת איזבל קרייץ ; מגרמנית: מיכאל דק ; עורכת תרגום: חנה לבנת.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>קרייץ, איזבל  (מאייר)  $$Qקרייץ, איזבל</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21487694780005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21487694780005171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>קסטנר, אריך, 1899-1974 מחבר$$Qקסטנר, אריך, 1899-1974</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew; Children -- Germany -- Juvenile fiction; Families -- Juvenile fiction; Friendship -- Juvenile fiction; Germany -- Social conditions -- 1918-1933 -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12533396560005171</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>102 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20220101</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[נתניה] : הוצאת ספרים אחיאסף</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>997011555289505171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21487694780005171</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5618,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>הנסיך דרקון: ירח / ארון איהז</t>
+          <t>ירח / ארון איהז ומלני מקגני איהז ; מאנגלית: יעל אכמון ; עורכת אחראית: מיכל פז-קלפ ; עורכת התרגום: יעל ינאי.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>איהז, מלני מקנגי  (מחבר)  $$Qאיהז, מלני מקנגי</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21443768290005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21443768290005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>איהז, ארון מחבר$$Qאיהז, ארון</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>American fiction -- Translations into Hebrew; Dragons -- Juvenile fiction; Elves -- Juvenile fiction; Princes -- Juvenile fiction; Magic -- Juvenile fiction; Good and evil -- Juvenile fiction; Quests (Expeditions) -- Juvenile fiction; Fantasy fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12453369880005171</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>239 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[2022]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[מושב בן-שמן] : כתר</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>997010678887105171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21443768290005171</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6770,72 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>פצפונת ואנטון קומיקס / קסטנר אריך</t>
+          <t>פצפנת ואנטון / אריך קסטנר ; בגרסת קומיקס מאת איזבל קרייץ ; מגרמנית: מיכאל דק ; עורכת תרגום: חנה לבנת.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>קרייץ, איזבל  (מאייר)  $$Qקרייץ, איזבל</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21487694780005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21487694780005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>קסטנר, אריך, 1899-1974 מחבר$$Qקסטנר, אריך, 1899-1974</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew; Children -- Germany -- Juvenile fiction; Families -- Juvenile fiction; Friendship -- Juvenile fiction; Germany -- Social conditions -- 1918-1933 -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12533396560005171</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>102 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20220101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[נתניה] : הוצאת ספרים אחיאסף</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>997011555289505171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21487694780005171</t>
         </is>
       </c>
     </row>
@@ -6773,7 +7293,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>אנימורפס – קומיקס / אפלגייט ק"א</t>
+          <t>הפלישה / ק"א אפלגייט ומייקל גרנט ; רומן גרפי מאת כריס גריין ; מאנגלית: ארז אשרוב.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>גרנט, מייקל  (מחבר)  $$Qגרנט, מייקל</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21442047140005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21442047140005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אפלגיט, קתרין מחבר$$Qאפלגיט, קתרין</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Extraterrestrial beings -- Juvenile fiction; Extraterrestrial beings -- Comic books, strips, etc; Human-alien encounters -- Juvenile fiction; Human-alien encounters -- Comic books, strips, etc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12444375610005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>226 עמודים, 8 עמודים לא ממוספרים : איורים צבעוניים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[2021]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : כנרת בית הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>997010622368905171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21442047140005171</t>
         </is>
       </c>
     </row>
@@ -7212,59 +7797,124 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>האסופית 4 אן מבית עצי הצפצפה / מונטגומרי לוסי מוד</t>
+          <t>אן מבית הצפצפה / לוסי מוד מונטגומרי ; מאנגלית: מור רוזנפלד ; עורכת התרגום: יעל ינאי.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>רוזנפלד, מור  (מתרגם)  $$Qרוזנפלד, מור</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21465881550005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21465881550005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>מונטגומרי, לוסי מוד, 1874-1942 מחבר$$Qמונטגומרי, לוסי מוד, 1874-1942</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Shirley, Anne (Fictitious character) -- Juvenile fiction; Canadian fiction -- Translations into Hebrew; Children's stories, Canadian; Women teachers -- Juvenile fiction; Friendship -- Juvenile fiction; Canada -- Social life and customs -- 19th century -- Juvenile fiction; Summerside (P.E.I.) -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12472306150005171</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>325 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[2022]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>מושב בן שמן : כתר</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>997011106226705171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21465881550005171</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>העצים והגרזן : רוח הצפון והשמש / עבדה שרה שריג ; איר שמשון קוטלובסקי.</t>
+          <t>גרזן / גארי פאולסן ; מאנגלית - דידי חנוך ; [עורך - דן הלוי].</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>קוטלובסקי, שמשון  (מאייר)  $$Qקוטלובסקי, שמשון</t>
+          <t>חנוך, דידי  $$Qחנוך, דידי</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21279668380005171</t>
+          <t>NNL_ALEPH21265612390005171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21279668380005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265612390005171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>שריג, שרה מחבר$$Qשריג, שרה</t>
+          <t>פאולסן, גארי, 1939-$$Qפאולסן, גארי, 1939-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Fables -- Adaptations</t>
+          <t>Fiction -- Translations into Hebrew; Hunting stories; Survival skills -- Fiction; Divorce -- Fiction; Canada -- Fiction</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302715580005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10, 9 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 20 ס"מ.</t>
+          <t>157, [1] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>תשע"ג 2013</t>
+          <t>20130101</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[חולון] : ספרים זה אנחנו</t>
+          <t>ירושלים : אורים</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -7274,7 +7924,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>990037406310205171</t>
+          <t>990035348060205171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -7284,29 +7934,29 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21279668380005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>קוד לבוש / קרי פיירסטון ; מאנגלית: ענבל שגיב-נקדימון.</t>
+          <t>קוד לבוש.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>שגיב-נקדימון, ענבל  (מתרגם)  $$Qשגיב-נקדימון, ענבל</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21404045450005171</t>
+          <t>NNL_ALEPH11499583640005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21404045450005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11499583640005171</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -7316,27 +7966,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dress codes -- Juvenile fiction; Middle schools -- Juvenile fiction; Youth protest movements -- Juvenile fiction; Podcasts -- Juvenile fiction; Children's stories, American -- Translations into Hebrew</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12496992000005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12499583630005171</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>311 עמודים ; 21 ס"מ.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[2021]</t>
+          <t>20210101</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>מושב בן-שמן : מודן</t>
+          <t>מושב בן שמן : מודן</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -7346,7 +7996,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>997009845960105171</t>
+          <t>997012124249005171</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -7356,7 +8006,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21404045450005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8896,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>אנימורפס – קומיקס / אפלגייט ק"א</t>
+          <t>הפלישה / ק"א אפלגייט ומייקל גרנט ; רומן גרפי מאת כריס גריין ; מאנגלית: ארז אשרוב.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>גרנט, מייקל  (מחבר)  $$Qגרנט, מייקל</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21442047140005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21442047140005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אפלגיט, קתרין מחבר$$Qאפלגיט, קתרין</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Extraterrestrial beings -- Juvenile fiction; Extraterrestrial beings -- Comic books, strips, etc; Human-alien encounters -- Juvenile fiction; Human-alien encounters -- Comic books, strips, etc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12444375610005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>226 עמודים, 8 עמודים לא ממוספרים : איורים צבעוניים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[2021]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : כנרת בית הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>997010622368905171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21442047140005171</t>
         </is>
       </c>
     </row>
@@ -8548,59 +9263,124 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>האסופית 4 אן מבית עצי הצפצפה / מונטגומרי לוסי מוד</t>
+          <t>אן מבית הצפצפה / לוסי מוד מונטגומרי ; מאנגלית: מור רוזנפלד ; עורכת התרגום: יעל ינאי.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>רוזנפלד, מור  (מתרגם)  $$Qרוזנפלד, מור</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21465881550005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21465881550005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>מונטגומרי, לוסי מוד, 1874-1942 מחבר$$Qמונטגומרי, לוסי מוד, 1874-1942</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Shirley, Anne (Fictitious character) -- Juvenile fiction; Canadian fiction -- Translations into Hebrew; Children's stories, Canadian; Women teachers -- Juvenile fiction; Friendship -- Juvenile fiction; Canada -- Social life and customs -- 19th century -- Juvenile fiction; Summerside (P.E.I.) -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12472306150005171</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>325 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[2022]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>מושב בן שמן : כתר</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>997011106226705171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21465881550005171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>העצים והגרזן : רוח הצפון והשמש / עבדה שרה שריג ; איר שמשון קוטלובסקי.</t>
+          <t>גרזן / גארי פאולסן ; מאנגלית - דידי חנוך ; [עורך - דן הלוי].</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>קוטלובסקי, שמשון  (מאייר)  $$Qקוטלובסקי, שמשון</t>
+          <t>חנוך, דידי  $$Qחנוך, דידי</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21279668380005171</t>
+          <t>NNL_ALEPH21265612390005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21279668380005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21265612390005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>שריג, שרה מחבר$$Qשריג, שרה</t>
+          <t>פאולסן, גארי, 1939-$$Qפאולסן, גארי, 1939-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Fables -- Adaptations</t>
+          <t>Fiction -- Translations into Hebrew; Hunting stories; Survival skills -- Fiction; Divorce -- Fiction; Canada -- Fiction</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302715580005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10, 9 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 20 ס"מ.</t>
+          <t>157, [1] עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>תשע"ג 2013</t>
+          <t>20130101</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[חולון] : ספרים זה אנחנו</t>
+          <t>ירושלים : אורים</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -8610,7 +9390,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990037406310205171</t>
+          <t>990035348060205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -8620,7 +9400,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21279668380005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -9438,7 +10218,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>יעקבסון דוד / דויטש חויתה</t>
+          <t>אור נפש נפרדת : הפואטיקה של המלנכוליה ביצירת יעקב שטיינברג / טלי לטוביצקי ; עורכת: דינה הורביץ.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>הורביץ, דינה  (עורך)  $$Qהורביץ, דינה</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21437709870005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21437709870005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>לטוביצקי, טלי, 1976-2019 מחבר$$Qלטוביצקי, טלי, 1976-2019</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>שטינברג, יעקב, 1887-1947; לטוביצקי, טלי, 1976-2019; Steinberg, Jacob, 1887-1947 -- Criticism and interpretation; Hebrew poetry, Modern -- History and criticism; Hebrew poetry, Modern -- Themes, motives; Melancholy in literature</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>368 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>תשפ"א 2021</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>חיפה : פרדס הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>997010398379105171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -9805,52 +10650,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>מנהרה בסורא / ר. פוריס ; ציורים: ברכה מן ואדל בש.</t>
+          <t>מנהרות של שתיקה / טובה אלסטרדאל ; מאנגלית: דנה אלעזר-הלוי.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>מן, ברכה  (מאייר)  $$Qמן, ברכה</t>
+          <t>אלעזר-הלוי, דנה, 1970-  (מתרגם)  $$Qאלעזר-הלוי, דנה, 1970-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21338706270005171</t>
+          <t>NNL_ALEPH21341748790005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21338706270005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21341748790005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>פוריס, רבקי מחבר$$Qפוריס, רבקי</t>
+          <t>אלסטרדאל, טובה, 1960- מחבר$$Qאלסטרדאל, טובה, 1960-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adventure stories; Haredi and religious literature; Children's stories, Hebrew</t>
+          <t>Swedish fiction -- Translations into Hebrew; World War, 1939-1945 -- Influence -- Fiction; Murder -- Investigation -- Fiction; Czechoslovakia -- History -- 1938-1945 -- Fiction; Sudetenland (Czech Republic) -- History -- 20th century -- Fiction</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12480984740005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12419716200005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>255 עמודים : איורים ; 22 ס"מ.</t>
+          <t>256 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[2020]</t>
+          <t>20200101</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ישראל] : מייזליק</t>
+          <t>תל אביב : הוצאת סלע ספרים</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -9860,7 +10705,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>997008433826205171</t>
+          <t>997008727759405171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -9870,7 +10715,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21338706270005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21341748790005171</t>
         </is>
       </c>
     </row>
@@ -10165,7 +11010,72 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>צארלס ג'נט / סקזליאן</t>
+          <t>הספרייה בפריז / ג'נט סקזליאן צ'ארלס ; מאנגלית: מור רוזנפלד ; עריכת התרגום: מורן שין.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>רוזנפלד, מור  (מתרגם)  $$Qרוזנפלד, מור</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21437259460005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21437259460005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>סקזליאן צ'ארלס, ג'נט מחבר$$Qסקזליאן צ'ארלס, ג'נט</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Libraries -- Fiction; Young women -- France -- Paris -- Fiction; Americans -- France -- Paris -- Fiction; French -- United States -- Fiction; Friendship -- Fiction; Paris (France) -- History -- 1940-1944 -- Fiction; Montana -- Fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12438112210005171</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>427 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[2021]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[פתח תקוה] : תכלת</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>997010362358805171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21437259460005171</t>
         </is>
       </c>
     </row>
